--- a/Test case UBS Code Test Trade Validation.xlsx
+++ b/Test case UBS Code Test Trade Validation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gft365-my.sharepoint.com/personal/wgyg_gft_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgyg\git\ubs_code_task_trade_validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{018DC8BF-B5CE-4436-9E87-CDF1C26BA052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BB1A1A-2ECC-48D2-8F86-B3B3ED321577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0374CD46-2820-4699-A446-91F63C86257B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>Test ID</t>
   </si>
@@ -332,48 +332,6 @@
 ]</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[
-  {
-    "customer": "YODA1",
-    "ccyPair": "EURUSD",
-    "type": "Spot",
-    "direction": "BUY",
-    "tradeDate": "2020-08-11",
-    "valueDate": "2020-08-15",
-    "amount1": 1000000,
-    "amount2": 1120000,
-    "rate": 1.12,
-    "legalEntity": "UBS AG",
-    "trader": "JosefSchoenberger",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    "remark": "valueDate 2020-08-15 cannot be before tradeDate 2020-08-11; ",
-    "validate": false
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  }
-]</t>
-    </r>
-  </si>
-  <si>
     <t>[
   {
     "customer": "YODA1",
@@ -590,6 +548,244 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Requirement : option American style, excerciseStartDate, which has to be after the trade date but
+before the expiry date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement : option ALL style, expiry date and premium date shall be before delivery date </t>
+  </si>
+  <si>
+    <t>type VanillaOption
+style American
+exerciseStartDate
+tradeDate
+expiryDate</t>
+  </si>
+  <si>
+    <t>type VanillaOption
+style American/European
+exerciseStartDate
+tradeDate
+expiryDate</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "customer": "YODA1",
+    "ccyPair": "EURUSD",
+    "type": "VanillaOption",
+    "style": "AMERICAN",
+    "direction": "BUY",
+    "strategy": "CALL",
+    "valueDate" : "2020-08-21",
+    "tradeDate": "2020-08-11",
+    "amount1": 1000000,
+    "amount2": 1120000,
+    "rate": 1.12,
+    "deliveryDate": "2020-08-22",
+    "expiryDate": "2020-08-19",
+    "excerciseStartDate": "2020-08-09",
+    "payCcy": "USD",
+    "premium": 0.2,
+    "premiumCcy": "USD",
+    "premiumType": "%USD",
+    "premiumDate": "2020-08-12",
+    "legalEntity": "UBSAG",
+    "trader": "Josef Schoenberger"
+  }
+]</t>
+  </si>
+  <si>
+    <r>
+      <t>[
+  {
+    "customer": "YODA1",
+    "ccyPair": "EURUSD",
+    "type": "VanillaOption",
+    "direction": "BUY",
+    "tradeDate": "2020-08-11",
+    "valueDate": "2020-08-21",
+    "amount1": 1000000,
+    "amount2": 1120000,
+    "rate": 1.12,
+    "legalEntity": "UBSAG",
+    "trader": "Josef Schoenberger",
+    "style": "AMERICAN",
+    "strategy": "CALL",
+    "deliveryDate": "2020-08-22",
+    "expiryDate": "2020-08-19",
+    "excerciseStartDate": "2020-08-09",
+    "payCcy": "USD",
+    "premium": 0.2,
+    "premiumCcy": "USD",
+    "premiumType": "%USD",
+    "premiumDate": 1597190400000,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    "remark": "Option: exerciseStartDate 2020-08-09 is not inside tradeDate 2020-08-11 and expiryDate 2020-08-19; ",
+    "validate": false
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  }
+]</t>
+    </r>
+  </si>
+  <si>
+    <t>[
+  {
+    "customer": "YODA1",
+    "ccyPair": "EURUSD",
+    "type": "Spot",
+    "direction": "BUY",
+    "tradeDate": "2020-08-11",
+    "amount1": 1000000,
+    "amount2": 1120000,
+    "rate": 1.12,
+    "valueDate": "2020-08-09",
+    "legalEntity": "UBS AG",
+    "trader": "JosefSchoenberger"
+  }
+]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[
+  {
+    "customer": "YODA1",
+    "ccyPair": "EURUSD",
+    "type": "Spot",
+    "direction": "BUY",
+    "tradeDate": "2020-08-11",
+    "valueDate": "2020-08-09",
+    "amount1": 1000000,
+    "amount2": 1120000,
+    "rate": 1.12,
+    "legalEntity": "UBS AG",
+    "trader": "JosefSchoenberger",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    "remark": "valueDate 2020-08-09 cannot be before tradeDate 2020-08-11; ",
+    "validate": false
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  }
+]</t>
+    </r>
+  </si>
+  <si>
+    <t>[
+  {
+    "customer": "YODA1",
+    "ccyPair": "EURUSD",
+    "type": "VanillaOption",
+    "style": "AMERICAN",
+    "direction": "BUY",
+    "strategy": "CALL",
+    "valueDate" : "2020-08-21",
+    "tradeDate": "2020-08-11",
+    "amount1": 1000000,
+    "amount2": 1120000,
+    "rate": 1.12,
+    "deliveryDate": "2020-08-01",
+    "expiryDate": "2020-08-19",
+    "excerciseStartDate": "2020-08-12",
+    "payCcy": "USD",
+    "premium": 0.2,
+    "premiumCcy": "USD",
+    "premiumType": "%USD",
+    "premiumDate": "2020-08-12",
+    "legalEntity": "UBSAG",
+    "trader": "Josef Schoenberger"
+  }
+]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[
+  {
+    "customer": "YODA1",
+    "ccyPair": "EURUSD",
+    "type": "VanillaOption",
+    "direction": "BUY",
+    "tradeDate": "2020-08-11",
+    "valueDate": "2020-08-21",
+    "amount1": 1000000,
+    "amount2": 1120000,
+    "rate": 1.12,
+    "legalEntity": "UBSAG",
+    "trader": "Josef Schoenberger",
+    "style": "AMERICAN",
+    "strategy": "CALL",
+    "deliveryDate": "2020-08-01",
+    "expiryDate": "2020-08-19",
+    "excerciseStartDate": "2020-08-12",
+    "payCcy": "USD",
+    "premium": 0.2,
+    "premiumCcy": "USD",
+    "premiumType": "%USD",
+    "premiumDate": 1597190400000,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    "remark": "Option : expiryDate 2020-08-19 and premiumDate 2020-08-12 shall be before deliveryDate 2020-08-01; ",
+    "validate": false
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  }
+]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -985,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EB2B3A-3928-4EB9-B308-CF9966313420}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1021,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -1041,7 +1237,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1061,7 +1257,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1081,7 +1277,7 @@
         <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="128.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1101,7 +1297,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1121,7 +1317,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="92" customHeight="1" x14ac:dyDescent="0.35">
@@ -1141,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="271.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1152,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="156.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1175,10 +1371,10 @@
         <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="128.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="203" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1189,13 +1385,13 @@
         <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="198.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1209,13 +1405,13 @@
         <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.35">
@@ -1229,7 +1425,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="88" customHeight="1" x14ac:dyDescent="0.35">
@@ -1246,10 +1442,10 @@
         <v>26</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.35">
@@ -1263,12 +1459,48 @@
         <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="E15" s="6"/>
+    <row r="15" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="146" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test case UBS Code Test Trade Validation.xlsx
+++ b/Test case UBS Code Test Trade Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgyg\git\ubs_code_task_trade_validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BB1A1A-2ECC-48D2-8F86-B3B3ED321577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3C3DFB-BB47-4D5C-A569-D1EF2E3E874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0374CD46-2820-4699-A446-91F63C86257B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>Test ID</t>
   </si>
@@ -786,6 +786,9 @@
       <t xml:space="preserve">  }
 ]</t>
     </r>
+  </si>
+  <si>
+    <t>Related fields</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EB2B3A-3928-4EB9-B308-CF9966313420}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1207,6 +1210,9 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
